--- a/biology/Histoire de la zoologie et de la botanique/Fannie_Pearson_Hardy_Eckstorm/Fannie_Pearson_Hardy_Eckstorm.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fannie_Pearson_Hardy_Eckstorm/Fannie_Pearson_Hardy_Eckstorm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fannie Pearson Hardy Eckstorm est une écrivain, une ornithologue et une folkloriste américaine, née le 18 juin 1865 à Brewer (Maine) et morte le 31 décembre 1946 dans cette même ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est la fille de Many Hardy, un célèbre fourreur[1]. Elle est l'auteur de plusieurs publications d'initiation à l'ornithologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la fille de Many Hardy, un célèbre fourreur. Elle est l'auteur de plusieurs publications d'initiation à l'ornithologie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1901 : The Bird book, D.C. Heath &amp; Co., Publishers (Boston) – Exemplaire numérique sur American Librairies.
 1901 : The Woodpeckers, Boughton, Mifflin and Company (Boston) – Exemplaire numérique sur Canadian Librairies.
